--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEF1544-1AF5-44E9-A1D6-F414324A2247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29F8183-EFF3-4748-89CC-B1518C3F474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,7 +1275,7 @@
         <v>45736</v>
       </c>
       <c r="I7" s="4">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>32</v>

--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29F8183-EFF3-4748-89CC-B1518C3F474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696923A-BB8C-4160-8FB1-3D242EDE7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>0002353916</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>0002353920</t>
-  </si>
-  <si>
-    <t>DE FORERO MIRYAN HOLGUIN ZUÑIGA</t>
   </si>
   <si>
     <t>20310661</t>
@@ -1088,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1107,10 +1104,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1123,7 +1120,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -1155,52 +1152,50 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1214,24 +1209,24 @@
         <v>45746</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>1</v>
@@ -1246,24 +1241,24 @@
         <v>45741</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>2</v>
@@ -1275,27 +1270,27 @@
         <v>45736</v>
       </c>
       <c r="I7" s="4">
-        <v>45742</v>
+        <v>45741</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>3</v>
@@ -1310,24 +1305,24 @@
         <v>45741</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
@@ -1342,7 +1337,7 @@
         <v>45741</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1400,18 +1395,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696923A-BB8C-4160-8FB1-3D242EDE7C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD01E6-F28C-49F2-8B94-053F4CC758E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>0002353916</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>3. Liquidaciones</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL GRIJALBA</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1198,9 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
       </c>

--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\REPOSITORIOS - DOWNLOADS\multimedia_cam\public\storage\users\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD01E6-F28C-49F2-8B94-053F4CC758E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6574CB-4E17-4611-BF7A-C317074B48CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1243,7 @@
         <v>45736</v>
       </c>
       <c r="I6" s="4">
-        <v>45741</v>
+        <v>45745</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>30</v>

--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam4\public\storage\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6574CB-4E17-4611-BF7A-C317074B48CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40D8A3-CF87-4EB5-A602-DACC90C7D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1243,7 @@
         <v>45736</v>
       </c>
       <c r="I6" s="4">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>30</v>

--- a/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
+++ b/storage/app/public/users/jose.jdgo97/LIQUIDACION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\versiones cam\multimedia_cam3\public\storage\pdfs\notificaciones_avisos_hacienda\jose.jdgo97\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\LARAVEL\multimedia_cam3\storage\app\public\users\jose.jdgo97\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BEE6BE-5173-4058-A364-7F002C968B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D47BF10-D1C3-4DDD-830F-2A7C0D70F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LIQUIDACIONES 2024'!$A$4:$N$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,6 +1126,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="7">
+        <f>COUNTIF(A5:A9, "&lt;&gt;")</f>
         <v>5</v>
       </c>
       <c r="C2" s="7"/>
@@ -1142,6 +1143,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="7">
+        <f>COUNTIF(J5:J9, "&lt;&gt;")</f>
         <v>5</v>
       </c>
       <c r="C3" s="7"/>
